--- a/bulletin/macroeconomics/static/macroeconomics/tables/output_of_agricultural_forestry_and_fishery_production.xlsx
+++ b/bulletin/macroeconomics/static/macroeconomics/tables/output_of_agricultural_forestry_and_fishery_production.xlsx
@@ -424,8 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Показатели 
-(млн тенге)</t>
+          <t>Регионы (млн тенге)</t>
         </is>
       </c>
       <c r="B1" t="n">
@@ -443,7 +442,7 @@
       <c r="F1" t="inlineStr">
         <is>
           <t>2023
-Январь - Март</t>
+ Январь - Октябрь</t>
         </is>
       </c>
     </row>
@@ -475,7 +474,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>824 722</t>
+          <t>7 551 783</t>
         </is>
       </c>
     </row>
@@ -495,7 +494,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>46 697</t>
+          <t>416 426</t>
         </is>
       </c>
     </row>
@@ -527,7 +526,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>82 069</t>
+          <t>666 961</t>
         </is>
       </c>
     </row>
@@ -559,7 +558,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>58 579</t>
+          <t>397 012</t>
         </is>
       </c>
     </row>
@@ -591,7 +590,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>97 912</t>
+          <t>728 277</t>
         </is>
       </c>
     </row>
@@ -623,7 +622,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>16 191</t>
+          <t>123 433</t>
         </is>
       </c>
     </row>
@@ -655,7 +654,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>28 615</t>
+          <t>261 478</t>
         </is>
       </c>
     </row>
@@ -687,7 +686,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>41 867</t>
+          <t>500 045</t>
         </is>
       </c>
     </row>
@@ -707,7 +706,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>41 775</t>
+          <t>417 795</t>
         </is>
       </c>
     </row>
@@ -739,7 +738,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>45 894</t>
+          <t>434 597</t>
         </is>
       </c>
     </row>
@@ -771,7 +770,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>53 508</t>
+          <t>611 774</t>
         </is>
       </c>
     </row>
@@ -803,7 +802,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>17 030</t>
+          <t>202 920</t>
         </is>
       </c>
     </row>
@@ -835,7 +834,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>6 196</t>
+          <t>24 138</t>
         </is>
       </c>
     </row>
@@ -867,7 +866,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>45 322</t>
+          <t>376 542</t>
         </is>
       </c>
     </row>
@@ -899,7 +898,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>48 000</t>
+          <t>775 342</t>
         </is>
       </c>
     </row>
@@ -931,7 +930,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>118 378</t>
+          <t>1 030 561</t>
         </is>
       </c>
     </row>
@@ -951,7 +950,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>13 251</t>
+          <t>92 407</t>
         </is>
       </c>
     </row>
@@ -983,7 +982,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>53 047</t>
+          <t>438 920</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1014,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>696</t>
+          <t>2 734</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1046,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>5 760</t>
         </is>
       </c>
     </row>
@@ -1079,7 +1078,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>9 463</t>
+          <t>44 650</t>
         </is>
       </c>
     </row>
